--- a/data/trans_orig/P07-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P07-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20894</v>
+        <v>21804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42876</v>
+        <v>42888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05252206798858007</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0357684038054397</v>
+        <v>0.0373268074038248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07339974764917309</v>
+        <v>0.07342012440071725</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -765,19 +765,19 @@
         <v>117775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98885</v>
+        <v>98779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>139443</v>
+        <v>139637</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1276927490864893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1072114025297912</v>
+        <v>0.1070966185559106</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.151185084759853</v>
+        <v>0.151394992806151</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -786,19 +786,19 @@
         <v>148456</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127545</v>
+        <v>126100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171075</v>
+        <v>172869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09854502288577215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08466487790949817</v>
+        <v>0.08370523950748002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1135598828173433</v>
+        <v>0.1147509769583843</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>141170</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121827</v>
+        <v>122404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164556</v>
+        <v>162886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2416709079280923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2085577563289053</v>
+        <v>0.2095449497201616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2817062432464924</v>
+        <v>0.2788474635568828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -836,19 +836,19 @@
         <v>286560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>257207</v>
+        <v>259309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313897</v>
+        <v>317253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3106901188259178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2788659378023376</v>
+        <v>0.2811451448252539</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3403290037276333</v>
+        <v>0.3439683914500691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>416</v>
@@ -857,19 +857,19 @@
         <v>427730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>392882</v>
+        <v>391667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>465304</v>
+        <v>461714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2839276493038035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2607958592818434</v>
+        <v>0.2599894380829809</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3088696685460364</v>
+        <v>0.3064865213212648</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>223179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>198778</v>
+        <v>200411</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>246087</v>
+        <v>246689</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3820641316790165</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3402903412682196</v>
+        <v>0.3430872843007967</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4212800522457072</v>
+        <v>0.4223108346635245</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>323</v>
@@ -907,19 +907,19 @@
         <v>340122</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>312406</v>
+        <v>310201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>367889</v>
+        <v>368121</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3687629418976656</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3387131982763224</v>
+        <v>0.3363219430296416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3988679498050902</v>
+        <v>0.3991191579787772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>543</v>
@@ -928,19 +928,19 @@
         <v>563302</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>526518</v>
+        <v>523599</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>602357</v>
+        <v>600687</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.373920530364712</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3495034353883884</v>
+        <v>0.3475661598663999</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3998455855262418</v>
+        <v>0.3987367639029535</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>144548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123784</v>
+        <v>122398</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166035</v>
+        <v>165976</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2474535542232183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2119080090702657</v>
+        <v>0.2095357086757822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2842375298378958</v>
+        <v>0.2841365085016638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -978,19 +978,19 @@
         <v>127169</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107620</v>
+        <v>107462</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150921</v>
+        <v>148189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1378772491488049</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1166818461827726</v>
+        <v>0.1165105507486462</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1636291565955046</v>
+        <v>0.1606678941061418</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -999,19 +999,19 @@
         <v>271717</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>243767</v>
+        <v>241371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>305106</v>
+        <v>302040</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1803658908871341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1618132283339294</v>
+        <v>0.1602226926800312</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2025300025989488</v>
+        <v>0.2004949271083313</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>44564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31705</v>
+        <v>32449</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59826</v>
+        <v>58110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07628933818109271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0542763580201154</v>
+        <v>0.05554998957645371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.102416697729874</v>
+        <v>0.09947980284281585</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -1049,19 +1049,19 @@
         <v>50707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37872</v>
+        <v>37123</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65956</v>
+        <v>66713</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05497694104112225</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04106127212528559</v>
+        <v>0.04024908356274675</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07150953553861691</v>
+        <v>0.0723305153884137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -1070,19 +1070,19 @@
         <v>95271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76939</v>
+        <v>78745</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115600</v>
+        <v>114598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06324090655857829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05107222640860977</v>
+        <v>0.05227123127243563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0767353057037284</v>
+        <v>0.07607053341708733</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>21391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13720</v>
+        <v>14093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33089</v>
+        <v>33018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01986488840758374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01274091087475953</v>
+        <v>0.0130875561248216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03072878548630641</v>
+        <v>0.0306628609309918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1195,19 +1195,19 @@
         <v>43954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31278</v>
+        <v>32731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57349</v>
+        <v>57418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0415623480681498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02957668285073145</v>
+        <v>0.03095050336348328</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0542288890230138</v>
+        <v>0.05429391864035642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -1216,19 +1216,19 @@
         <v>65344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50975</v>
+        <v>51005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82578</v>
+        <v>82162</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03061566256700295</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02388316416238975</v>
+        <v>0.0238973248215113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03869014344995054</v>
+        <v>0.03849507384877564</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>139466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118894</v>
+        <v>118617</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163526</v>
+        <v>161895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1295175218635512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1104135921369593</v>
+        <v>0.1101555832475711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.151861266081506</v>
+        <v>0.1503471902958457</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -1266,19 +1266,19 @@
         <v>231855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206516</v>
+        <v>206679</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258453</v>
+        <v>259414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2192403435758893</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1952804083981877</v>
+        <v>0.1954341913843972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2443913286609669</v>
+        <v>0.2452997440670283</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>363</v>
@@ -1287,19 +1287,19 @@
         <v>371321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>336170</v>
+        <v>337087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>409051</v>
+        <v>405376</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1739738687477106</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1575046329261572</v>
+        <v>0.157934421731393</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1916515482038676</v>
+        <v>0.1899299008543056</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>402268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>370196</v>
+        <v>369013</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>433688</v>
+        <v>434243</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3735738612480229</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.34378988604788</v>
+        <v>0.3426908694315276</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4027534123833323</v>
+        <v>0.4032687937544593</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>431</v>
@@ -1337,19 +1337,19 @@
         <v>445519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>411423</v>
+        <v>413580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>477332</v>
+        <v>478047</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4212793406723228</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3890385055072718</v>
+        <v>0.3910781891695321</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4513619244526985</v>
+        <v>0.4520377021655177</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>827</v>
@@ -1358,19 +1358,19 @@
         <v>847787</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>803604</v>
+        <v>800972</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>890097</v>
+        <v>892566</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3972112291003334</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3765106179102583</v>
+        <v>0.3752770775229354</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4170346791003177</v>
+        <v>0.4181917001997791</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>400849</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>369148</v>
+        <v>372188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>431947</v>
+        <v>432915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3722560054482608</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3428167625734758</v>
+        <v>0.3456393359252531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4011362413530786</v>
+        <v>0.4020355080632956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>230</v>
@@ -1408,19 +1408,19 @@
         <v>235170</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209384</v>
+        <v>209357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262489</v>
+        <v>261620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2223752792434314</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1979917637078056</v>
+        <v>0.1979667318936801</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2482072052876127</v>
+        <v>0.2473856024963635</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>620</v>
@@ -1429,19 +1429,19 @@
         <v>636019</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>591707</v>
+        <v>592842</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>676698</v>
+        <v>680768</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2979922960792614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2772309443845804</v>
+        <v>0.2777625368624824</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3170514242868143</v>
+        <v>0.3189582259553553</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>112836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94252</v>
+        <v>92589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134481</v>
+        <v>134269</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1047877230325813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08752915628666622</v>
+        <v>0.08598420914964378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1248880665594584</v>
+        <v>0.1246914468473111</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -1479,19 +1479,19 @@
         <v>101040</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83272</v>
+        <v>83451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121659</v>
+        <v>121297</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09554268844020673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07874153729567153</v>
+        <v>0.0789110624012067</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1150401588205895</v>
+        <v>0.1146973177277877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -1500,19 +1500,19 @@
         <v>213876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187432</v>
+        <v>185616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>245881</v>
+        <v>239221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1002069435056916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08781717094369741</v>
+        <v>0.08696601131188893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1152018421177023</v>
+        <v>0.1120815880745875</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>17918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10596</v>
+        <v>10714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27863</v>
+        <v>29391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01597576612519468</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009446936205361495</v>
+        <v>0.009552316772831106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02484230929145662</v>
+        <v>0.02620460220655322</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1625,19 +1625,19 @@
         <v>24217</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16783</v>
+        <v>15517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36784</v>
+        <v>36642</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02436510161225133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01688547242209593</v>
+        <v>0.01561155703135839</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03700869665666028</v>
+        <v>0.03686550484131414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1646,19 +1646,19 @@
         <v>42136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30310</v>
+        <v>31257</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56772</v>
+        <v>56986</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0199173209616403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01432728087576468</v>
+        <v>0.0147747647834234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02683597714085724</v>
+        <v>0.02693694063262861</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>105184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87333</v>
+        <v>86684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125851</v>
+        <v>125106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09378107035709894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07786511408916306</v>
+        <v>0.07728625441858186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1122072564152329</v>
+        <v>0.1115434806237499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -1696,19 +1696,19 @@
         <v>185346</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160990</v>
+        <v>160899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212022</v>
+        <v>211281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1864758896765597</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1619714051709086</v>
+        <v>0.1618797485911458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2133151804985226</v>
+        <v>0.2125693527827444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>287</v>
@@ -1717,19 +1717,19 @@
         <v>290530</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>260361</v>
+        <v>258004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>323949</v>
+        <v>324242</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1373318037811903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1230711014371345</v>
+        <v>0.1219571114321876</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1531285969826115</v>
+        <v>0.1532672703434727</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>417762</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>386376</v>
+        <v>381590</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>450285</v>
+        <v>448924</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3724713835936352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3444885871959002</v>
+        <v>0.3402214480589423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.401468922930076</v>
+        <v>0.4002551531325557</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>424</v>
@@ -1767,19 +1767,19 @@
         <v>429572</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>394517</v>
+        <v>398184</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>459945</v>
+        <v>458506</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4321906626091596</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3969222998049539</v>
+        <v>0.4006112495043973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4627494730215178</v>
+        <v>0.4613016752555066</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>836</v>
@@ -1788,19 +1788,19 @@
         <v>847333</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>803509</v>
+        <v>806876</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>891343</v>
+        <v>895002</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4005292450769254</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3798139071910291</v>
+        <v>0.3814055573830497</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4213324748814012</v>
+        <v>0.4230618088999871</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>459130</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>426145</v>
+        <v>426813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>488855</v>
+        <v>495357</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.409355241653376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3799455209104481</v>
+        <v>0.3805415861000429</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4358576373326498</v>
+        <v>0.4416540548171362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>296</v>
@@ -1838,19 +1838,19 @@
         <v>294098</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>267963</v>
+        <v>268324</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>326628</v>
+        <v>324498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2958911655729657</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2695964335937308</v>
+        <v>0.2699604219335072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3286199115297934</v>
+        <v>0.326476362404721</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>744</v>
@@ -1859,19 +1859,19 @@
         <v>753228</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>710036</v>
+        <v>705220</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>799356</v>
+        <v>794040</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3560465048019806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3356295148931426</v>
+        <v>0.3333531467844661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3778509035232607</v>
+        <v>0.3753377736837213</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>121599</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101756</v>
+        <v>101173</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143964</v>
+        <v>144426</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1084165382706952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09072465407893857</v>
+        <v>0.09020450110400161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1283563157634777</v>
+        <v>0.1287687972747961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -1909,19 +1909,19 @@
         <v>60707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44674</v>
+        <v>46267</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76859</v>
+        <v>78337</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06107718052906361</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04494609770386397</v>
+        <v>0.04654957432127568</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07732751188833974</v>
+        <v>0.07881414892519294</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -1930,19 +1930,19 @@
         <v>182306</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>157397</v>
+        <v>155721</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>210944</v>
+        <v>210776</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08617512537826336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07440078955202502</v>
+        <v>0.07360834722034452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09971183059975709</v>
+        <v>0.09963248095554583</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>5407</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1943</v>
+        <v>1896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12872</v>
+        <v>11748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01209152308731823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004344041612273994</v>
+        <v>0.004239195749477457</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0287826834856742</v>
+        <v>0.02626949774295765</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>6374</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2306</v>
+        <v>2372</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13593</v>
+        <v>13188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01868339616068355</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006760219861557565</v>
+        <v>0.006952049784476825</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03984383171317266</v>
+        <v>0.03865714227852936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2076,19 +2076,19 @@
         <v>11781</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6062</v>
+        <v>6176</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20192</v>
+        <v>20472</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01494412531871537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007689340001744447</v>
+        <v>0.007833733583280099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02561264582909888</v>
+        <v>0.02596773228875416</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>37279</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26098</v>
+        <v>27009</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50419</v>
+        <v>49565</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08336109121969767</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05835961205848663</v>
+        <v>0.0603968797985666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1127431150240951</v>
+        <v>0.1108351274004143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -2126,19 +2126,19 @@
         <v>43305</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30768</v>
+        <v>32046</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>56880</v>
+        <v>57926</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1269359257722736</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09018609304564958</v>
+        <v>0.09393441659138455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1667265972229425</v>
+        <v>0.1697919082834718</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>78</v>
@@ -2147,19 +2147,19 @@
         <v>80584</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66042</v>
+        <v>64371</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100229</v>
+        <v>100189</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1022178970006955</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08377217635669985</v>
+        <v>0.08165142621786058</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.127136661649451</v>
+        <v>0.1270852141445576</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>146116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126352</v>
+        <v>126706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>166288</v>
+        <v>164769</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3267353655763488</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2825413521462559</v>
+        <v>0.2833325102934436</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3718422942251445</v>
+        <v>0.3684464341403039</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>139</v>
@@ -2197,19 +2197,19 @@
         <v>138212</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>122248</v>
+        <v>121336</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155995</v>
+        <v>155705</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.405127493861182</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3583337012654163</v>
+        <v>0.355659998190903</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4572528024165634</v>
+        <v>0.4564005101635669</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>285</v>
@@ -2218,19 +2218,19 @@
         <v>284329</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>259307</v>
+        <v>258480</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>312618</v>
+        <v>313954</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3606591923218661</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3289204902003803</v>
+        <v>0.3278708637112655</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.396543088402723</v>
+        <v>0.3982378686923772</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>180032</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>159144</v>
+        <v>159371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>202926</v>
+        <v>200588</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4025754304978147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3558677432176231</v>
+        <v>0.3563747099061125</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.453770635990553</v>
+        <v>0.4485422098358699</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>111</v>
@@ -2268,19 +2268,19 @@
         <v>110579</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>94298</v>
+        <v>94220</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>127853</v>
+        <v>128917</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3241280805546237</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2764064827003696</v>
+        <v>0.2761778864701888</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3747620006550599</v>
+        <v>0.3778812962991546</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>285</v>
@@ -2289,19 +2289,19 @@
         <v>290611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>263142</v>
+        <v>263979</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>316406</v>
+        <v>317518</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3686277068380061</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3337850475925331</v>
+        <v>0.3348470935054278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4013482440339654</v>
+        <v>0.4027592375272958</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>78366</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61407</v>
+        <v>61815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96157</v>
+        <v>95988</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1752365896188206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1373141968095864</v>
+        <v>0.1382266067252248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2150203596583832</v>
+        <v>0.2146431414833373</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2339,19 +2339,19 @@
         <v>42687</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32881</v>
+        <v>31958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57280</v>
+        <v>55384</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1251251036512372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09637963318573545</v>
+        <v>0.0936742243962826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.167897362903869</v>
+        <v>0.1623415851557932</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>116</v>
@@ -2360,19 +2360,19 @@
         <v>121053</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>102316</v>
+        <v>100952</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142913</v>
+        <v>142215</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1535510785207169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1297842964547671</v>
+        <v>0.1280536004373964</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1812790736855479</v>
+        <v>0.1803944538445835</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>75397</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60882</v>
+        <v>60642</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94483</v>
+        <v>93491</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02334446588325942</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01885032842103705</v>
+        <v>0.01877600821396855</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02925406797068028</v>
+        <v>0.02894687540883567</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>186</v>
@@ -2485,19 +2485,19 @@
         <v>192320</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>166638</v>
+        <v>167825</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>221034</v>
+        <v>219645</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0580157626048371</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05026839822231253</v>
+        <v>0.05062644545554256</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06667768713352064</v>
+        <v>0.06625859813762881</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>262</v>
@@ -2506,19 +2506,19 @@
         <v>267717</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>239455</v>
+        <v>237331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>301786</v>
+        <v>299950</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04090585582742422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0365875938171478</v>
+        <v>0.03626298228464945</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04611147139196728</v>
+        <v>0.0458308844179919</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>423099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>384512</v>
+        <v>385698</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>462844</v>
+        <v>466085</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1310007645221642</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1190532226792475</v>
+        <v>0.1194204329986162</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1433066407703607</v>
+        <v>0.1443102227179205</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>722</v>
@@ -2556,19 +2556,19 @@
         <v>747066</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>701653</v>
+        <v>694209</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>794960</v>
+        <v>791589</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2253613257531375</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2116618995016199</v>
+        <v>0.2094163903712503</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2398090790389902</v>
+        <v>0.2387923831635505</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1144</v>
@@ -2577,19 +2577,19 @@
         <v>1170165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1108847</v>
+        <v>1103986</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1233526</v>
+        <v>1227580</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1787954179622838</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1694263519330312</v>
+        <v>0.1686836283156561</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1884766686974473</v>
+        <v>0.187568129687512</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>1189325</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1133043</v>
+        <v>1132848</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1243042</v>
+        <v>1244975</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.368241189030657</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3508150835974999</v>
+        <v>0.3507547450910701</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3848729887791877</v>
+        <v>0.3854716306076994</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1317</v>
@@ -2627,19 +2627,19 @@
         <v>1353425</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1299842</v>
+        <v>1297503</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1410426</v>
+        <v>1411724</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4082768800490281</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3921128858181759</v>
+        <v>0.3914072353330268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4254717239454596</v>
+        <v>0.4258634983290977</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2491</v>
@@ -2648,19 +2648,19 @@
         <v>2542750</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2463076</v>
+        <v>2466771</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2625679</v>
+        <v>2622040</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3885197031947998</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3763459200350056</v>
+        <v>0.376910446780117</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4011908552052272</v>
+        <v>0.40063477326926</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>1184559</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1130711</v>
+        <v>1128302</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1238900</v>
+        <v>1241536</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3667654327176645</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3500931110905908</v>
+        <v>0.349347135159005</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3835905100568346</v>
+        <v>0.3844069453626927</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>760</v>
@@ -2698,19 +2698,19 @@
         <v>767016</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>721849</v>
+        <v>716422</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>816740</v>
+        <v>811376</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2313795329633461</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2177542329728717</v>
+        <v>0.2161173783245352</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2463795138694562</v>
+        <v>0.2447613676437719</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1911</v>
@@ -2719,19 +2719,19 @@
         <v>1951575</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1878030</v>
+        <v>1878700</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2022932</v>
+        <v>2030750</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2981909978581943</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2869538336537619</v>
+        <v>0.2870560912603582</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.309094085802747</v>
+        <v>0.3102887005655119</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>357365</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>322527</v>
+        <v>319370</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>394673</v>
+        <v>394450</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1106481478462549</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09986143316349282</v>
+        <v>0.09888382244586545</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.122199460389221</v>
+        <v>0.1221304463075867</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>249</v>
@@ -2769,19 +2769,19 @@
         <v>255142</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>227111</v>
+        <v>226849</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>287928</v>
+        <v>289895</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07696649862965116</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06851071408299021</v>
+        <v>0.06843174176240731</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08685687584785146</v>
+        <v>0.0874504280325227</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>593</v>
@@ -2790,19 +2790,19 @@
         <v>612507</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>568846</v>
+        <v>566434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>662462</v>
+        <v>659505</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09358802515729779</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08691679950581868</v>
+        <v>0.08654831984588689</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1012208717873099</v>
+        <v>0.1007690877085636</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>42528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30975</v>
+        <v>30684</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57274</v>
+        <v>58036</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0407795241287525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02970142551181696</v>
+        <v>0.02942250704464811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05491832768986815</v>
+        <v>0.05564889029215699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -3155,19 +3155,19 @@
         <v>97278</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78813</v>
+        <v>79702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119330</v>
+        <v>118176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08686090767065777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07037354851498526</v>
+        <v>0.07116702642472572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1065514155294545</v>
+        <v>0.1055208546648435</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -3176,19 +3176,19 @@
         <v>139806</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118467</v>
+        <v>117501</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>164005</v>
+        <v>164862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06464094116442269</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05477444468640975</v>
+        <v>0.05432783051441556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07582928565746905</v>
+        <v>0.07622546397106786</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>177958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151230</v>
+        <v>155236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203991</v>
+        <v>205914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1706397082504676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1450104976059144</v>
+        <v>0.1488524748691682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1956023818242227</v>
+        <v>0.1974459797533174</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -3226,19 +3226,19 @@
         <v>303231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272001</v>
+        <v>274081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333859</v>
+        <v>336505</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2707594859079007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2428735801701044</v>
+        <v>0.2447305616327784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.298107174518572</v>
+        <v>0.3004702786596309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>444</v>
@@ -3247,19 +3247,19 @@
         <v>481189</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>439737</v>
+        <v>441468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>521123</v>
+        <v>521554</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2224827646992847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.203316874675635</v>
+        <v>0.2041173290510673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2409466528740853</v>
+        <v>0.2411457868844081</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>417554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>381776</v>
+        <v>384529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>449144</v>
+        <v>449708</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4003827020923356</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3660762345236462</v>
+        <v>0.3687160725489128</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4306736021663534</v>
+        <v>0.4312149466719747</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>392</v>
@@ -3297,19 +3297,19 @@
         <v>429167</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>394705</v>
+        <v>392650</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>463406</v>
+        <v>462000</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3832097307351731</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3524381697690801</v>
+        <v>0.3506032457272749</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4137815822690919</v>
+        <v>0.4125262736507575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>779</v>
@@ -3318,19 +3318,19 @@
         <v>846722</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>803600</v>
+        <v>797760</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>894429</v>
+        <v>897558</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3914903598968753</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3715525218312272</v>
+        <v>0.3688524873161622</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4135483034667093</v>
+        <v>0.4149952737385119</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>296968</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267725</v>
+        <v>268627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>327691</v>
+        <v>327464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.284755451681944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2567154526204211</v>
+        <v>0.2575797621552858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.314215116316495</v>
+        <v>0.3139976643780773</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>221</v>
@@ -3368,19 +3368,19 @@
         <v>240718</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>213143</v>
+        <v>213047</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>270731</v>
+        <v>270067</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2149401875803928</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1903187065164751</v>
+        <v>0.190232835331077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2417396317138283</v>
+        <v>0.2411469091043606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>502</v>
@@ -3389,19 +3389,19 @@
         <v>537686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>499814</v>
+        <v>495239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>581502</v>
+        <v>577792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2486043858037321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2310942012496362</v>
+        <v>0.2289786316539542</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.268863520787992</v>
+        <v>0.2671481301321002</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>107879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88367</v>
+        <v>88958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128768</v>
+        <v>127586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1034426138465003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08473345239773507</v>
+        <v>0.08530007313354784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.123472207533162</v>
+        <v>0.1223390735401072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -3439,19 +3439,19 @@
         <v>49534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37295</v>
+        <v>36585</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64523</v>
+        <v>65380</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04422968810587557</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03330093982762652</v>
+        <v>0.03266714030316183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05761321033752035</v>
+        <v>0.05837854332422904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -3460,19 +3460,19 @@
         <v>157413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134237</v>
+        <v>135044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>182256</v>
+        <v>183614</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07278154843568517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0620657850553761</v>
+        <v>0.06243917730692346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0842679473884199</v>
+        <v>0.08489583998816243</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>32811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21794</v>
+        <v>20846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47534</v>
+        <v>49324</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0337529469258062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02242007077555418</v>
+        <v>0.02144464297602717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0488995260393034</v>
+        <v>0.05074079560272807</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -3585,19 +3585,19 @@
         <v>60767</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46281</v>
+        <v>46948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79590</v>
+        <v>76790</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05572963439519515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04244411572637187</v>
+        <v>0.04305551712250431</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07299195580131598</v>
+        <v>0.07042413052764493</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3606,19 +3606,19 @@
         <v>93578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75699</v>
+        <v>74585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115749</v>
+        <v>117767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04537162949701889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03670280079992367</v>
+        <v>0.03616299762629423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0561213945475947</v>
+        <v>0.05709958391036056</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>121379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99331</v>
+        <v>102373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143293</v>
+        <v>143318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1248646897310812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1021837025202407</v>
+        <v>0.1053128017152295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1474080363588232</v>
+        <v>0.1474337456409053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -3656,19 +3656,19 @@
         <v>230343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204528</v>
+        <v>202570</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257982</v>
+        <v>258986</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2112471530647444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1875721767542169</v>
+        <v>0.1857763527941591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2365948246657019</v>
+        <v>0.237515811739841</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>326</v>
@@ -3677,19 +3677,19 @@
         <v>351722</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>317595</v>
+        <v>316606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>388697</v>
+        <v>386392</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1705335569155112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1539871270720527</v>
+        <v>0.1535073636329899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1884609481675537</v>
+        <v>0.187343310578905</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>409561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>378234</v>
+        <v>377078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>440796</v>
+        <v>443027</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4213234312963487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3890967902442143</v>
+        <v>0.3879072879753902</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4534550008692953</v>
+        <v>0.4557498047081106</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>454</v>
@@ -3727,19 +3727,19 @@
         <v>487806</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>453059</v>
+        <v>455302</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>518013</v>
+        <v>522408</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4473661700726481</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4154992591727378</v>
+        <v>0.4175564143569278</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4750689160241837</v>
+        <v>0.4790991697502298</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>841</v>
@@ -3748,19 +3748,19 @@
         <v>897368</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>852343</v>
+        <v>850466</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>942597</v>
+        <v>947949</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4350917626496656</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4132611829933232</v>
+        <v>0.4123511501371759</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.457021293389835</v>
+        <v>0.4596162282767907</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>302829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>274427</v>
+        <v>271368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331511</v>
+        <v>331440</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3115254376237523</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2823079377970192</v>
+        <v>0.2791610442823274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.341031501484415</v>
+        <v>0.3409584605977207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -3798,19 +3798,19 @@
         <v>251039</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>224177</v>
+        <v>221584</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>277710</v>
+        <v>279148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2302271149974204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2055922346271919</v>
+        <v>0.2032143388584309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2546870527281596</v>
+        <v>0.2560058995388659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>524</v>
@@ -3819,19 +3819,19 @@
         <v>553867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>510885</v>
+        <v>512776</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>594839</v>
+        <v>596670</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2685444649233359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2477043966018341</v>
+        <v>0.2486213792254993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2884097143307218</v>
+        <v>0.2892977105259741</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>105504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85734</v>
+        <v>89194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125747</v>
+        <v>128838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1085334944230115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08819596137179529</v>
+        <v>0.09175560835250358</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1293579893843138</v>
+        <v>0.1325376637112368</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -3869,19 +3869,19 @@
         <v>60441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46383</v>
+        <v>47073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77439</v>
+        <v>76877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.055429927469992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04253784316398958</v>
+        <v>0.04317038677733647</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07101949046332467</v>
+        <v>0.07050385637637385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>162</v>
@@ -3890,19 +3890,19 @@
         <v>165944</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140690</v>
+        <v>142486</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>191735</v>
+        <v>190081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08045858601446831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06821388055127316</v>
+        <v>0.0690850542209315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09296352154852845</v>
+        <v>0.09216150314240215</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>17581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10498</v>
+        <v>11192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28042</v>
+        <v>28217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01988500723388301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01187344652084314</v>
+        <v>0.01265862090214499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03171683272024416</v>
+        <v>0.03191555231982356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -4015,19 +4015,19 @@
         <v>32325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22864</v>
+        <v>22165</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47347</v>
+        <v>46853</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03690875800017263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02610674754202423</v>
+        <v>0.02530840997904232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05406161777152153</v>
+        <v>0.05349719594724298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -4036,19 +4036,19 @@
         <v>49905</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35866</v>
+        <v>36711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65617</v>
+        <v>64540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02835657738180928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02037934212236829</v>
+        <v>0.02085936610025419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03728420227311895</v>
+        <v>0.03667196282325591</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>113708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94965</v>
+        <v>92589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137285</v>
+        <v>136101</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1286100425294563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1074111305867185</v>
+        <v>0.1047236771601259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1552775070089314</v>
+        <v>0.153938475093282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>129</v>
@@ -4086,19 +4086,19 @@
         <v>139025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117563</v>
+        <v>118305</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160584</v>
+        <v>162851</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1587411640439917</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.134235455792338</v>
+        <v>0.1350828265818766</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1833575790111563</v>
+        <v>0.1859460886268858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>231</v>
@@ -4107,19 +4107,19 @@
         <v>252733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>223672</v>
+        <v>224232</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>285624</v>
+        <v>283954</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.143604265192275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1270915023602742</v>
+        <v>0.1274099860722268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1622932894994162</v>
+        <v>0.1613444054712856</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>380505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>347155</v>
+        <v>353109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>409906</v>
+        <v>412114</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4303724262712159</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3926523561459386</v>
+        <v>0.3993860111319286</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4636271358403712</v>
+        <v>0.466124176725513</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>408</v>
@@ -4157,19 +4157,19 @@
         <v>436906</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>408499</v>
+        <v>404590</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>467281</v>
+        <v>467947</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4988667904098052</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4664312348527069</v>
+        <v>0.4619682126189543</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5335504587363016</v>
+        <v>0.5343102257319698</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>760</v>
@@ -4178,19 +4178,19 @@
         <v>817410</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>773590</v>
+        <v>771050</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>859546</v>
+        <v>864341</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4644574418769826</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4395587705992243</v>
+        <v>0.4381153462794298</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.488399456975899</v>
+        <v>0.4911237588303119</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>262095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>232996</v>
+        <v>237103</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>289597</v>
+        <v>291855</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2964438088899098</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2635319676370073</v>
+        <v>0.2681771207339442</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3275501235123957</v>
+        <v>0.330104031424205</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>183</v>
@@ -4228,19 +4228,19 @@
         <v>191446</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>167187</v>
+        <v>166816</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>217388</v>
+        <v>218179</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2185963653824801</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1908971345490839</v>
+        <v>0.190473877381291</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2482171296037649</v>
+        <v>0.2491213637512987</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>436</v>
@@ -4249,19 +4249,19 @@
         <v>453540</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>416639</v>
+        <v>415011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>491764</v>
+        <v>492993</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2577043978421495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2367367626763042</v>
+        <v>0.2358119349111042</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2794235290262131</v>
+        <v>0.2801215147459733</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>110241</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92165</v>
+        <v>91137</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132630</v>
+        <v>133156</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1246887150755349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1042434402701876</v>
+        <v>0.1030811304734262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1500115877397947</v>
+        <v>0.1506071087779274</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -4299,19 +4299,19 @@
         <v>76095</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60426</v>
+        <v>60964</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94276</v>
+        <v>94315</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0868869221635504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.068995242654077</v>
+        <v>0.06960955137424767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1076463029082306</v>
+        <v>0.1076910304891636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>177</v>
@@ -4320,19 +4320,19 @@
         <v>186336</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161217</v>
+        <v>161279</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>214836</v>
+        <v>214247</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1058773177067836</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09160466051106536</v>
+        <v>0.09163985697070978</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1220711244387751</v>
+        <v>0.1217366904652058</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>9322</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4996</v>
+        <v>4109</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16913</v>
+        <v>16724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01853218181653768</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009931661622236552</v>
+        <v>0.008168029248558176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03362211396741011</v>
+        <v>0.03324691255897014</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4445,19 +4445,19 @@
         <v>9863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5233</v>
+        <v>4379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18628</v>
+        <v>17728</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02183245673502797</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01158466949355005</v>
+        <v>0.009692467697749988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04123472394296301</v>
+        <v>0.03924337557195292</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -4466,19 +4466,19 @@
         <v>19185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11816</v>
+        <v>11487</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29610</v>
+        <v>29588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02009370386133058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01237539772170671</v>
+        <v>0.01203112952722185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03101255067902903</v>
+        <v>0.03098989464073538</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>52272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>38368</v>
+        <v>39902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>68002</v>
+        <v>70364</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1039158763930721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07627544728057832</v>
+        <v>0.07932442249297046</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1351859908329823</v>
+        <v>0.139883014918691</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>66</v>
@@ -4516,19 +4516,19 @@
         <v>71378</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>56333</v>
+        <v>56162</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>89786</v>
+        <v>87654</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1580034991395222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1246988587095819</v>
+        <v>0.1243212743633069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1987522523601861</v>
+        <v>0.1940326819367143</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>112</v>
@@ -4537,19 +4537,19 @@
         <v>123650</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>102753</v>
+        <v>103096</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>148204</v>
+        <v>144806</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1295073853900436</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1076208447958325</v>
+        <v>0.1079794844245269</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.155224293934819</v>
+        <v>0.1516659312194702</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>214362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>188710</v>
+        <v>188883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236379</v>
+        <v>235203</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4261474086244191</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3751522976287469</v>
+        <v>0.3754951754151783</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4699177954174873</v>
+        <v>0.4675790229072219</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>184</v>
@@ -4587,19 +4587,19 @@
         <v>206488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>184590</v>
+        <v>184011</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>230340</v>
+        <v>230648</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4570843750357476</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4086106519741864</v>
+        <v>0.4073302080011124</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5098840148675217</v>
+        <v>0.5105655600663002</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>381</v>
@@ -4608,19 +4608,19 @@
         <v>420849</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>390237</v>
+        <v>389783</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>453170</v>
+        <v>453239</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.440785205851447</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4087223558638001</v>
+        <v>0.408247044886298</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4746366025361832</v>
+        <v>0.4747094340940167</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>151846</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>131792</v>
+        <v>130871</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>175631</v>
+        <v>173318</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3018677540041513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2620001147732727</v>
+        <v>0.2601681418642964</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3491503331858983</v>
+        <v>0.3445531961885737</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>107</v>
@@ -4658,19 +4658,19 @@
         <v>114247</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95479</v>
+        <v>95000</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132516</v>
+        <v>134586</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2528976932043097</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2113542569031059</v>
+        <v>0.2102924567353443</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2933387466649252</v>
+        <v>0.297921153248059</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>251</v>
@@ -4679,19 +4679,19 @@
         <v>266093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>238783</v>
+        <v>238684</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>295438</v>
+        <v>293628</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2786976147392741</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2500941199450193</v>
+        <v>0.2499906703792359</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3094330611814662</v>
+        <v>0.3075373819674458</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>75220</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58557</v>
+        <v>59431</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94225</v>
+        <v>95770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1495367791618199</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1164105326002731</v>
+        <v>0.1181466936171844</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1873167430518303</v>
+        <v>0.1903894672328101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -4729,19 +4729,19 @@
         <v>49775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36885</v>
+        <v>37263</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64925</v>
+        <v>65646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1101819758853926</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08164939275744558</v>
+        <v>0.08248506671916543</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1437178920446845</v>
+        <v>0.1453138716387899</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>110</v>
@@ -4750,19 +4750,19 @@
         <v>124995</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104372</v>
+        <v>103148</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>149439</v>
+        <v>149879</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1309160901579047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1093164803198977</v>
+        <v>0.108034559784424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1565175354613703</v>
+        <v>0.1569792613716126</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>102242</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>83196</v>
+        <v>82671</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>123605</v>
+        <v>125732</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03005245920892339</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02445424016940816</v>
+        <v>0.02429993970108161</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03633177019085629</v>
+        <v>0.03695686266544475</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>185</v>
@@ -4875,7 +4875,7 @@
         <v>200233</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>172380</v>
+        <v>171914</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>228103</v>
@@ -4884,10 +4884,10 @@
         <v>0.05659696814346529</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04872433310025612</v>
+        <v>0.04859260967371938</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06447459621663283</v>
+        <v>0.06447458103391912</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>277</v>
@@ -4896,19 +4896,19 @@
         <v>302475</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>268321</v>
+        <v>267859</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>338732</v>
+        <v>335607</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04358432064960197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03866295477918433</v>
+        <v>0.0385965102114656</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04880869209494778</v>
+        <v>0.04835839377520176</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>465317</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>422852</v>
+        <v>425009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>511584</v>
+        <v>508952</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1367725015729491</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1242906758114539</v>
+        <v>0.1249247893239436</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1503720976367948</v>
+        <v>0.1495984966116351</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>689</v>
@@ -4946,19 +4946,19 @@
         <v>743977</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>695770</v>
+        <v>694186</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>793591</v>
+        <v>796317</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2102895776862387</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1966635404208092</v>
+        <v>0.1962157488498348</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2243132951372082</v>
+        <v>0.2250836807981689</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1113</v>
@@ -4967,19 +4967,19 @@
         <v>1209294</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1145657</v>
+        <v>1149565</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1278849</v>
+        <v>1272242</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1742500412758709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1650804288769722</v>
+        <v>0.1656435228780451</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1842724127131525</v>
+        <v>0.1833204117192364</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>1421982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1368048</v>
+        <v>1358302</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1481494</v>
+        <v>1478094</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4179691226951531</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4021158801206149</v>
+        <v>0.3992512663468478</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4354617306932252</v>
+        <v>0.4344621738488698</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1438</v>
@@ -5017,19 +5017,19 @@
         <v>1560367</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1501537</v>
+        <v>1502640</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1620104</v>
+        <v>1630673</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4410470030790803</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4244182783462896</v>
+        <v>0.4247300300133374</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4579320430554554</v>
+        <v>0.4609193555218861</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2761</v>
@@ -5038,19 +5038,19 @@
         <v>2982349</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2905764</v>
+        <v>2887423</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3069301</v>
+        <v>3063859</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4297337660144154</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4186983986927943</v>
+        <v>0.4160557051328398</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4422629596250774</v>
+        <v>0.4414787244986179</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>1013738</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>955809</v>
+        <v>959199</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1065371</v>
+        <v>1070513</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2979720689056344</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2809448720574921</v>
+        <v>0.2819413540279102</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3131488514871424</v>
+        <v>0.3146604104264452</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>744</v>
@@ -5088,19 +5088,19 @@
         <v>797449</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>750428</v>
+        <v>748019</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>849489</v>
+        <v>849401</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2254035908594779</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2121130397989487</v>
+        <v>0.2114318943248803</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2401132599300123</v>
+        <v>0.240088363783887</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1713</v>
@@ -5109,19 +5109,19 @@
         <v>1811186</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1734130</v>
+        <v>1740250</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1890765</v>
+        <v>1895928</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2609781055852705</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2498748849474753</v>
+        <v>0.2507567049834948</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2724448032734919</v>
+        <v>0.2731887590152955</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>398844</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>362193</v>
+        <v>361903</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>437142</v>
+        <v>436606</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.11723384761734</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1064610088001461</v>
+        <v>0.106375530912722</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1284908168721728</v>
+        <v>0.1283334447518317</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>224</v>
@@ -5159,19 +5159,19 @@
         <v>235845</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>207816</v>
+        <v>205818</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>270300</v>
+        <v>266490</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06666286023173783</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05874053252162063</v>
+        <v>0.05817580022875195</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07640199167407029</v>
+        <v>0.075324860030548</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>602</v>
@@ -5180,19 +5180,19 @@
         <v>634688</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>587045</v>
+        <v>588877</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>681729</v>
+        <v>686316</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09145376647484124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08458870946033767</v>
+        <v>0.08485266533032808</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09823200086008607</v>
+        <v>0.09889284372100213</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>43182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31916</v>
+        <v>31221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58518</v>
+        <v>57968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03828211787730078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02829471182801447</v>
+        <v>0.02767829323080515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05187750299253076</v>
+        <v>0.05139038687571737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -5545,19 +5545,19 @@
         <v>93907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75262</v>
+        <v>75493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115710</v>
+        <v>116083</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07474073789113164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05990128325851884</v>
+        <v>0.06008483285085749</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09209439915810937</v>
+        <v>0.09239089185241299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -5566,19 +5566,19 @@
         <v>137089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116076</v>
+        <v>113167</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161231</v>
+        <v>163720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05749333127087213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04868086647159147</v>
+        <v>0.04746088387343529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06761839826252038</v>
+        <v>0.06866208064339387</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>200541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177104</v>
+        <v>178281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>227271</v>
+        <v>229806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1777854277009332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1570075534342043</v>
+        <v>0.1580508660652052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2014817840247179</v>
+        <v>0.2037292404129656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -5616,19 +5616,19 @@
         <v>301842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270707</v>
+        <v>270285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336052</v>
+        <v>337387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2402371035715265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.215456583981266</v>
+        <v>0.2151213884358898</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2674657228561275</v>
+        <v>0.2685280694726781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -5637,19 +5637,19 @@
         <v>502383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460826</v>
+        <v>463644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>547652</v>
+        <v>547524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2106932138837612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1932646427109533</v>
+        <v>0.194446752277749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.229678541770671</v>
+        <v>0.2296248466342401</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>342161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>313677</v>
+        <v>311106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>372387</v>
+        <v>375846</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3033348562352957</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2780831179842301</v>
+        <v>0.27580399607358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.330130893683813</v>
+        <v>0.3331979509487775</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>368</v>
@@ -5687,19 +5687,19 @@
         <v>391894</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>357822</v>
+        <v>361409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>424627</v>
+        <v>426397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.311910363081267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2847922244835414</v>
+        <v>0.2876467170035599</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3379628321899608</v>
+        <v>0.3393714386532022</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>686</v>
@@ -5708,19 +5708,19 @@
         <v>734055</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>686115</v>
+        <v>686885</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>783549</v>
+        <v>780624</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3078535651692457</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2877481352148285</v>
+        <v>0.2880712611431128</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3286106967250465</v>
+        <v>0.3273841103453714</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>383817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>352362</v>
+        <v>350982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>416348</v>
+        <v>418758</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3402640786017708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3123784058255659</v>
+        <v>0.311155523637392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.369104027658186</v>
+        <v>0.3712404091933402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>355</v>
@@ -5758,19 +5758,19 @@
         <v>354850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>321557</v>
+        <v>324143</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>385326</v>
+        <v>386246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2824266314984307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2559284690690567</v>
+        <v>0.2579871100490932</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3066826396591525</v>
+        <v>0.3074148715938224</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>719</v>
@@ -5779,19 +5779,19 @@
         <v>738667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>692248</v>
+        <v>694640</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>788336</v>
+        <v>782877</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.309787677190523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2903201635306042</v>
+        <v>0.2913232742949463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3306181501876339</v>
+        <v>0.3283287717938587</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>158296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135191</v>
+        <v>133419</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>180832</v>
+        <v>181144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1403335195846996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1198507566119944</v>
+        <v>0.1182795322537453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1603126293938998</v>
+        <v>0.1605886993196135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>114</v>
@@ -5829,19 +5829,19 @@
         <v>113940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>94724</v>
+        <v>95318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136096</v>
+        <v>137720</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09068516395764414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07539151678625894</v>
+        <v>0.07586416891320266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.108319562977811</v>
+        <v>0.1096122135271315</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>262</v>
@@ -5850,19 +5850,19 @@
         <v>272236</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>240925</v>
+        <v>241841</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>302480</v>
+        <v>305500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.114172212485598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1010410189081925</v>
+        <v>0.1014253215567086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1268564657154789</v>
+        <v>0.1281227677095562</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>18275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10490</v>
+        <v>10698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28594</v>
+        <v>28696</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02017355243767248</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01157962427100276</v>
+        <v>0.01180923504310147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03156451041331729</v>
+        <v>0.0316772012643811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -5975,19 +5975,19 @@
         <v>42476</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28970</v>
+        <v>30950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55608</v>
+        <v>58225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04220291683387222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02878362525650483</v>
+        <v>0.03075113009760672</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05524977179915474</v>
+        <v>0.05785080537235893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -5996,19 +5996,19 @@
         <v>60751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45778</v>
+        <v>45438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78598</v>
+        <v>79330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0317675839429393</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02393776079800065</v>
+        <v>0.02375995959061208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04110008515796652</v>
+        <v>0.04148256900954342</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>109253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91712</v>
+        <v>88401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131218</v>
+        <v>128742</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1206035653387288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1012399744567946</v>
+        <v>0.09758491532851023</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1448504840969058</v>
+        <v>0.142116622353549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -6046,19 +6046,19 @@
         <v>168961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143833</v>
+        <v>144770</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>194141</v>
+        <v>194339</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1678740506041044</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1429078890054886</v>
+        <v>0.1438388697237094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1928922217745428</v>
+        <v>0.1930888277640656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>260</v>
@@ -6067,19 +6067,19 @@
         <v>278214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>249441</v>
+        <v>248271</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>310388</v>
+        <v>310565</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1454819724311531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1304360470050201</v>
+        <v>0.1298242688845092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1623060531984859</v>
+        <v>0.1623987330766218</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>265959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>237242</v>
+        <v>241239</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>293050</v>
+        <v>295528</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.293589470063219</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2618887882303519</v>
+        <v>0.2663009876195813</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3234943217345447</v>
+        <v>0.3262300564094008</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>291</v>
@@ -6117,19 +6117,19 @@
         <v>312329</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>283017</v>
+        <v>284977</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>345148</v>
+        <v>343829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3103198964793539</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2811964461982197</v>
+        <v>0.2831434601665597</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.342927314353399</v>
+        <v>0.3416169858772384</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>548</v>
@@ -6138,19 +6138,19 @@
         <v>578289</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>536652</v>
+        <v>542632</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>615034</v>
+        <v>621290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3023946760363281</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2806224254167126</v>
+        <v>0.2837490793641807</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3216093432094625</v>
+        <v>0.324880675509893</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>334977</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>305339</v>
+        <v>305846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364947</v>
+        <v>363333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3697771165279917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3370603534328602</v>
+        <v>0.3376195376463562</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4028608306896454</v>
+        <v>0.4010788597994349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>328</v>
@@ -6188,19 +6188,19 @@
         <v>337535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>307216</v>
+        <v>307748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>367341</v>
+        <v>368615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3353635833373481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3052393752342752</v>
+        <v>0.3057680939819566</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3649781256992658</v>
+        <v>0.3662431332080692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>652</v>
@@ -6209,19 +6209,19 @@
         <v>672512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>631620</v>
+        <v>633715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>716297</v>
+        <v>715747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3516653099027993</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3302825669842686</v>
+        <v>0.3313779329831803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3745609725748033</v>
+        <v>0.3742734360532763</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>177424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154004</v>
+        <v>155149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200270</v>
+        <v>203162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1958562956323881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1700028339431423</v>
+        <v>0.1712667887359757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2210756887892736</v>
+        <v>0.2242678897563992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -6259,19 +6259,19 @@
         <v>145174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122691</v>
+        <v>124956</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168268</v>
+        <v>168049</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1442395527453214</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.12190163303626</v>
+        <v>0.1241520992597806</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1671852598492748</v>
+        <v>0.1669676808445913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>316</v>
@@ -6280,19 +6280,19 @@
         <v>322598</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>291952</v>
+        <v>289907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>357186</v>
+        <v>353606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1686904576867801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1526652469276323</v>
+        <v>0.151595898754951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1867774249836803</v>
+        <v>0.1849050119682289</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>15773</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8978</v>
+        <v>9151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24622</v>
+        <v>25635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01916893845429354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01091046976837273</v>
+        <v>0.01112041304420077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02992235608182175</v>
+        <v>0.03115382845475545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -6405,19 +6405,19 @@
         <v>37525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26666</v>
+        <v>26297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52124</v>
+        <v>53430</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04866703076747114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03458367668066065</v>
+        <v>0.03410559267042932</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06760040274817811</v>
+        <v>0.0692948691046559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -6426,19 +6426,19 @@
         <v>53299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39529</v>
+        <v>40312</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71111</v>
+        <v>71109</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03343863681751516</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02479956515510273</v>
+        <v>0.02529124284359269</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0446136140793947</v>
+        <v>0.04461271584152945</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>80661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65292</v>
+        <v>64988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98808</v>
+        <v>99756</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09802463124616563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07934712108865842</v>
+        <v>0.07897826884921992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1200786819314604</v>
+        <v>0.1212300181114582</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -6476,19 +6476,19 @@
         <v>112656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95518</v>
+        <v>94737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136498</v>
+        <v>136774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1461051823188959</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.123879218000858</v>
+        <v>0.1228656609855942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1770272033362893</v>
+        <v>0.17738443676319</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -6497,19 +6497,19 @@
         <v>193316</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166556</v>
+        <v>168987</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>222961</v>
+        <v>224717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1212835916447279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1044943722967575</v>
+        <v>0.106019672706438</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1398820756058895</v>
+        <v>0.1409837962404169</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>254888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>229935</v>
+        <v>229351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>281164</v>
+        <v>282987</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3097576576957766</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2794332050254613</v>
+        <v>0.278723263002738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3416899555383278</v>
+        <v>0.3439056759310609</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>221</v>
@@ -6547,19 +6547,19 @@
         <v>241457</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>215504</v>
+        <v>213955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268677</v>
+        <v>269314</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3131501442897758</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2794909035618247</v>
+        <v>0.2774815626352078</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3484521758232589</v>
+        <v>0.3492775924940952</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>466</v>
@@ -6568,19 +6568,19 @@
         <v>496345</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>459395</v>
+        <v>458969</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>534105</v>
+        <v>534704</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3113987726493703</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.288216905325989</v>
+        <v>0.2879500674278538</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3350888052621241</v>
+        <v>0.3354644589397899</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>300332</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>274305</v>
+        <v>273067</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>332641</v>
+        <v>330302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3649840944868629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3333548817428586</v>
+        <v>0.3318506890389007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.404248712425398</v>
+        <v>0.4014068278087619</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>235</v>
@@ -6618,19 +6618,19 @@
         <v>237950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>211218</v>
+        <v>213929</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>263366</v>
+        <v>265326</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3086013570114631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2739324803120075</v>
+        <v>0.2774478184908777</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3415639496585796</v>
+        <v>0.3441065384209791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>515</v>
@@ -6639,19 +6639,19 @@
         <v>538281</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>498379</v>
+        <v>493902</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>580472</v>
+        <v>574927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3377089524836207</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.312674754192329</v>
+        <v>0.3098659902631584</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3641786477964466</v>
+        <v>0.3607002773010198</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>171209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148180</v>
+        <v>149498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195137</v>
+        <v>195393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2080646781169013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1800785639242342</v>
+        <v>0.1816804314996773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2371441591675776</v>
+        <v>0.2374555464929207</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -6689,19 +6689,19 @@
         <v>141471</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121399</v>
+        <v>121390</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164312</v>
+        <v>164025</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.183476285612394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1574448201103079</v>
+        <v>0.1574328037886777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2130993882852267</v>
+        <v>0.2127268572258927</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>306</v>
@@ -6710,19 +6710,19 @@
         <v>312679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>279112</v>
+        <v>281732</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>345646</v>
+        <v>344451</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.196170046404766</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1751103263269929</v>
+        <v>0.1767542926607163</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.216853058172268</v>
+        <v>0.2161030654629049</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>11117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5610</v>
+        <v>5887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20152</v>
+        <v>19330</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02198258309347477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01109447819816448</v>
+        <v>0.01164064992088117</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03984965271577592</v>
+        <v>0.03822384891444877</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -6835,19 +6835,19 @@
         <v>14957</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8085</v>
+        <v>7432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26950</v>
+        <v>24334</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03067546665963787</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01658222128631992</v>
+        <v>0.01524163305353684</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05527161131727758</v>
+        <v>0.04990596879620203</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -6856,19 +6856,19 @@
         <v>26074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17504</v>
+        <v>16300</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37804</v>
+        <v>39722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02624980462283229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0176222901267137</v>
+        <v>0.01640984590475108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03805952180155473</v>
+        <v>0.03999004448475715</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>48250</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35824</v>
+        <v>34714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>64063</v>
+        <v>62466</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09541174460239417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07083971079667901</v>
+        <v>0.06864497440087169</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1266813412726481</v>
+        <v>0.1235245724744464</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -6906,19 +6906,19 @@
         <v>67479</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51458</v>
+        <v>51204</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>85198</v>
+        <v>84112</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.138391994294092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1055334631307333</v>
+        <v>0.1050133108489941</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1747303469347598</v>
+        <v>0.1725041914799552</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>102</v>
@@ -6927,19 +6927,19 @@
         <v>115729</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>96725</v>
+        <v>95532</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>137669</v>
+        <v>138281</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1165101805155911</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09737805067486005</v>
+        <v>0.09617642228460818</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1385981792948232</v>
+        <v>0.1392145563289659</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>187606</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>166219</v>
+        <v>166294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>211322</v>
+        <v>212080</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3709827491019042</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3286912147786163</v>
+        <v>0.3288386868823203</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4178787252693388</v>
+        <v>0.419378635075112</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>169</v>
@@ -6977,19 +6977,19 @@
         <v>182003</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>160461</v>
+        <v>159455</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>204233</v>
+        <v>203305</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3732658591613948</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3290869823794823</v>
+        <v>0.3270228511907806</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4188559956727532</v>
+        <v>0.4169532018428402</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>345</v>
@@ -6998,19 +6998,19 @@
         <v>369609</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>337709</v>
+        <v>339144</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>401496</v>
+        <v>400078</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3721034976228753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.339988210844828</v>
+        <v>0.3414324624218479</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4042051555807579</v>
+        <v>0.4027777773136659</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>178544</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155608</v>
+        <v>154790</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>202994</v>
+        <v>200150</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3530624868265691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3077073704846178</v>
+        <v>0.3060907807501655</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4014101510213677</v>
+        <v>0.3957870140620723</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>136</v>
@@ -7048,19 +7048,19 @@
         <v>143141</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121833</v>
+        <v>123981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164320</v>
+        <v>165140</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2935643570932492</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2498640248051898</v>
+        <v>0.2542699720570614</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3369999272780787</v>
+        <v>0.338682067890779</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>301</v>
@@ -7069,19 +7069,19 @@
         <v>321685</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>292539</v>
+        <v>292544</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>353114</v>
+        <v>353248</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3238556421446964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2945130879464197</v>
+        <v>0.2945178244662068</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.355497051750659</v>
+        <v>0.3556320870147339</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>80184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64084</v>
+        <v>64253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>97595</v>
+        <v>96954</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1585604363756577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1267225628303442</v>
+        <v>0.1270571749423208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.192989448558605</v>
+        <v>0.1917220563380129</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -7119,19 +7119,19 @@
         <v>80016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63971</v>
+        <v>63742</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>97235</v>
+        <v>98334</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1641023227916261</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1311958878753293</v>
+        <v>0.1307271450121536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1994166779559433</v>
+        <v>0.2016706663764987</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -7140,19 +7140,19 @@
         <v>160200</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137776</v>
+        <v>138062</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>184179</v>
+        <v>184501</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.161280875094005</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1387058731961169</v>
+        <v>0.1389935324038027</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1854216400582079</v>
+        <v>0.1857458239078169</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>88347</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>72045</v>
+        <v>71337</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>108751</v>
+        <v>109739</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0262746367621219</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0214264845601677</v>
+        <v>0.02121573909177386</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03234290292997515</v>
+        <v>0.03263678490087804</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>162</v>
@@ -7265,19 +7265,19 @@
         <v>188865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>162309</v>
+        <v>162467</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>222016</v>
+        <v>217698</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0536310917719833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04609008440324509</v>
+        <v>0.04613490541992433</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06304466987113787</v>
+        <v>0.06181848521607083</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>248</v>
@@ -7286,19 +7286,19 @@
         <v>277212</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>243212</v>
+        <v>246036</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>313752</v>
+        <v>313563</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04026901708179926</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03533000710672297</v>
+        <v>0.03574024495010153</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04557685954971797</v>
+        <v>0.04554947579902266</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>438705</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>400198</v>
+        <v>402413</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>478296</v>
+        <v>480388</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1304720068506478</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1190197156414596</v>
+        <v>0.1196786533295582</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1422462592912243</v>
+        <v>0.1428684864434104</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>576</v>
@@ -7336,19 +7336,19 @@
         <v>650938</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>605283</v>
+        <v>604831</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>700823</v>
+        <v>698525</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1848434621691755</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1718789512663692</v>
+        <v>0.1717506381299092</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1990090592872454</v>
+        <v>0.1983564561200635</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1001</v>
@@ -7357,19 +7357,19 @@
         <v>1089643</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1023656</v>
+        <v>1024866</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1160047</v>
+        <v>1148630</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1582860940190157</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1487004936392377</v>
+        <v>0.1488763185735351</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1685132743456335</v>
+        <v>0.1668547779217764</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>1050614</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>998808</v>
+        <v>997373</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1107757</v>
+        <v>1107109</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.312455120749035</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2970477400728578</v>
+        <v>0.2966211504235238</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3294494590826032</v>
+        <v>0.3292569570608032</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1049</v>
@@ -7407,19 +7407,19 @@
         <v>1127684</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1064291</v>
+        <v>1074379</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1183929</v>
+        <v>1191948</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3202225517500245</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3022210996470386</v>
+        <v>0.3050858294006679</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.336194173351661</v>
+        <v>0.3384713795370338</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2045</v>
@@ -7428,19 +7428,19 @@
         <v>2178298</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2096761</v>
+        <v>2100083</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2251684</v>
+        <v>2251229</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3164286028210182</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3045841779824043</v>
+        <v>0.3050667360473114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3270889496020433</v>
+        <v>0.3270228477651726</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>1197669</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1143707</v>
+        <v>1141203</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1258447</v>
+        <v>1250773</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3561896315751488</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3401411396092059</v>
+        <v>0.3393966192006277</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3742651053865338</v>
+        <v>0.3719828322994173</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1054</v>
@@ -7478,19 +7478,19 @@
         <v>1073476</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1023754</v>
+        <v>1016540</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1133626</v>
+        <v>1127875</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3048293863847596</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.290710077021734</v>
+        <v>0.2886616768981555</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3219100066424982</v>
+        <v>0.3202767274665997</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2187</v>
@@ -7499,19 +7499,19 @@
         <v>2271145</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2187010</v>
+        <v>2196436</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2349495</v>
+        <v>2356508</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3299159493949434</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3176942070793348</v>
+        <v>0.3190634195363518</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3412973767295319</v>
+        <v>0.3423161734192533</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>587112</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>541754</v>
+        <v>542076</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>629289</v>
+        <v>625719</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1746086040630465</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1611190463783469</v>
+        <v>0.161214658669722</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1871520579293223</v>
+        <v>0.1860901978083664</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>477</v>
@@ -7549,19 +7549,19 @@
         <v>480600</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>440022</v>
+        <v>440067</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>522352</v>
+        <v>524598</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1364735079240571</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1249507585744788</v>
+        <v>0.1249636394199188</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1483294822248089</v>
+        <v>0.148967281377516</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1037</v>
@@ -7570,19 +7570,19 @@
         <v>1067712</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1004725</v>
+        <v>1009210</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1128133</v>
+        <v>1128853</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1551003366832234</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1459505826583379</v>
+        <v>0.1466020122183637</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1638772778261235</v>
+        <v>0.1639819252242166</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>45394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34063</v>
+        <v>33539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58670</v>
+        <v>58812</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09101833332039118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06829887661298771</v>
+        <v>0.06724822367835047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.117637394944827</v>
+        <v>0.117920719862137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -7935,19 +7935,19 @@
         <v>76284</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64996</v>
+        <v>63533</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91155</v>
+        <v>90368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1223328672982275</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1042299573853039</v>
+        <v>0.1018836955318009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1461808821670235</v>
+        <v>0.1449178812037999</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -7956,19 +7956,19 @@
         <v>121679</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102191</v>
+        <v>103270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139511</v>
+        <v>139632</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1084172323174368</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09105313190681172</v>
+        <v>0.09201508141492769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1243062081331285</v>
+        <v>0.1244135184290867</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>110151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92541</v>
+        <v>92344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132841</v>
+        <v>130220</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2208580894353123</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1855502070066828</v>
+        <v>0.1851541704307799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2663530824700454</v>
+        <v>0.2610978205322917</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -8006,19 +8006,19 @@
         <v>158438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141589</v>
+        <v>139972</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>178864</v>
+        <v>178882</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.25407852745347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2270584649039125</v>
+        <v>0.2244647983088208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2868337181593998</v>
+        <v>0.2868633497920561</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -8027,19 +8027,19 @@
         <v>268589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>244871</v>
+        <v>246058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>296700</v>
+        <v>298716</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2393159418218315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2181832148630104</v>
+        <v>0.2192409426707391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2643631373326658</v>
+        <v>0.26615899721409</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>178011</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>155410</v>
+        <v>156691</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200784</v>
+        <v>203470</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.35692311673324</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3116054522278575</v>
+        <v>0.314173632646546</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4025836893180856</v>
+        <v>0.4079696660781726</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>304</v>
@@ -8077,19 +8077,19 @@
         <v>227672</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>207166</v>
+        <v>206953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>251095</v>
+        <v>249074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3651050391449279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3322209746820532</v>
+        <v>0.3318790962909187</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4026668830173438</v>
+        <v>0.3994262276429775</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>474</v>
@@ -8098,19 +8098,19 @@
         <v>405684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>374326</v>
+        <v>372211</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>439577</v>
+        <v>436268</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3614691349413787</v>
+        <v>0.3614691349413788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3335288509034903</v>
+        <v>0.3316439326077071</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3916683371222242</v>
+        <v>0.3887195629789466</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>100327</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81670</v>
+        <v>80922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122937</v>
+        <v>123482</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2011617735738219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.16375320708269</v>
+        <v>0.1622531282416172</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2464958588038295</v>
+        <v>0.2475880219091037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -8148,19 +8148,19 @@
         <v>125961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109527</v>
+        <v>109138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146255</v>
+        <v>146218</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2019966870639904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1756416590384846</v>
+        <v>0.1750179807275689</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2345416078146407</v>
+        <v>0.2344820030701807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>230</v>
@@ -8169,19 +8169,19 @@
         <v>226289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198688</v>
+        <v>198858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>255945</v>
+        <v>253783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2016256660110204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1770330144919065</v>
+        <v>0.1771846738122858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2280503034560033</v>
+        <v>0.2261235873697255</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>64855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46580</v>
+        <v>45492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91465</v>
+        <v>88719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1300386869372347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09339504081385029</v>
+        <v>0.09121391046213394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1833926133583278</v>
+        <v>0.1778873737007393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -8219,19 +8219,19 @@
         <v>35224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23494</v>
+        <v>24251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51195</v>
+        <v>53290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05648687903938399</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0376755330960824</v>
+        <v>0.03889010250400269</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08209917854596677</v>
+        <v>0.08545850281666807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -8240,19 +8240,19 @@
         <v>100080</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75977</v>
+        <v>77189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128954</v>
+        <v>128195</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08917202490833263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06769661565274211</v>
+        <v>0.06877598385841854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1148995986564389</v>
+        <v>0.114223606753567</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>38456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28492</v>
+        <v>28356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51161</v>
+        <v>51139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04005287695112757</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02967504696881746</v>
+        <v>0.02953345393965906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05328516211860605</v>
+        <v>0.0532618010941289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -8365,19 +8365,19 @@
         <v>67208</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56264</v>
+        <v>56045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80029</v>
+        <v>79342</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06022999925323766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05042303489032799</v>
+        <v>0.05022637371629863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0717204740721047</v>
+        <v>0.07110445957924373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -8386,19 +8386,19 @@
         <v>105664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90578</v>
+        <v>90069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122139</v>
+        <v>122592</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05089814669084432</v>
+        <v>0.05089814669084431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04363144262805683</v>
+        <v>0.04338624375801976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05883439576344381</v>
+        <v>0.05905248926707044</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>149030</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128397</v>
+        <v>128363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174198</v>
+        <v>175544</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1552177460384237</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1337279379316636</v>
+        <v>0.1336927711810786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1814301582083875</v>
+        <v>0.1828323550609671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>414</v>
@@ -8436,19 +8436,19 @@
         <v>245836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223524</v>
+        <v>223235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>268075</v>
+        <v>269260</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2203127064817936</v>
+        <v>0.2203127064817937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2003176627204948</v>
+        <v>0.2000587464420223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2402435005343173</v>
+        <v>0.241305091272336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>587</v>
@@ -8457,19 +8457,19 @@
         <v>394866</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>363480</v>
+        <v>363922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>430917</v>
+        <v>428861</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1902065018250063</v>
+        <v>0.1902065018250062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1750880229214593</v>
+        <v>0.1753006965717273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2075721118542759</v>
+        <v>0.2065816841612291</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>363248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>329906</v>
+        <v>326831</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>394771</v>
+        <v>396626</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3783292530434606</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3436031857560108</v>
+        <v>0.3404004200966275</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4111607618588501</v>
+        <v>0.4130928469096391</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>655</v>
@@ -8507,19 +8507,19 @@
         <v>457913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>429521</v>
+        <v>428236</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>489139</v>
+        <v>488012</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4103714235903509</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.384927834015464</v>
+        <v>0.3837761628537948</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4383558495738998</v>
+        <v>0.4373456555611427</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1030</v>
@@ -8528,19 +8528,19 @@
         <v>821160</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>777842</v>
+        <v>778867</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>867930</v>
+        <v>865762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3955520253210857</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3746854026927968</v>
+        <v>0.3751795264248248</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4180810259842497</v>
+        <v>0.4170364214501341</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>318071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>289145</v>
+        <v>284307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>353668</v>
+        <v>351764</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3312764526081779</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3011497989130358</v>
+        <v>0.2961107999510503</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3683520344296468</v>
+        <v>0.3663682454617156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>349</v>
@@ -8578,19 +8578,19 @@
         <v>281671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>256180</v>
+        <v>255318</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>308878</v>
+        <v>309094</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2524277213826346</v>
+        <v>0.2524277213826347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2295834307031882</v>
+        <v>0.2288109030622727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.276809859589632</v>
+        <v>0.2770034361499751</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>602</v>
@@ -8599,19 +8599,19 @@
         <v>599742</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>556965</v>
+        <v>557533</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>641409</v>
+        <v>644255</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2888949996947457</v>
+        <v>0.2888949996947456</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2682892618570111</v>
+        <v>0.2685627838937372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3089659833291064</v>
+        <v>0.3103367659600871</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>91332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68809</v>
+        <v>67797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120261</v>
+        <v>121090</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09512367135881031</v>
+        <v>0.09512367135881032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07166562007106096</v>
+        <v>0.07061161179506642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1252538127336858</v>
+        <v>0.1261171588723361</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -8649,19 +8649,19 @@
         <v>63222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48423</v>
+        <v>47342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82979</v>
+        <v>81167</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05665814929198299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04339537685211189</v>
+        <v>0.04242685095765708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07436438917415288</v>
+        <v>0.0727402269096416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -8670,19 +8670,19 @@
         <v>154554</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128175</v>
+        <v>126103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>189003</v>
+        <v>188071</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07444832646831807</v>
+        <v>0.07444832646831806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06174169768421821</v>
+        <v>0.06074349917215274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09104271814624858</v>
+        <v>0.09059369760019031</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>18324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12558</v>
+        <v>12626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25874</v>
+        <v>25780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01750996755981823</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01200013767751902</v>
+        <v>0.01206547324538895</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02472509182559115</v>
+        <v>0.02463515976894563</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -8795,19 +8795,19 @@
         <v>38505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29161</v>
+        <v>30554</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48136</v>
+        <v>48754</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03675371609947944</v>
+        <v>0.03675371609947945</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02783484921502023</v>
+        <v>0.02916430993900754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04594687064053635</v>
+        <v>0.04653691916741388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>97</v>
@@ -8816,19 +8816,19 @@
         <v>56829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45797</v>
+        <v>46253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69332</v>
+        <v>68546</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02713718252200011</v>
+        <v>0.02713718252200012</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0218693025620165</v>
+        <v>0.02208726548584123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03310781428645991</v>
+        <v>0.03273260538471498</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>124060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104668</v>
+        <v>104678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>143980</v>
+        <v>145826</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1185500486921976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1000190479027643</v>
+        <v>0.1000286262197983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1375849987556522</v>
+        <v>0.1393489077224574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>302</v>
@@ -8866,19 +8866,19 @@
         <v>177372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157558</v>
+        <v>157662</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197990</v>
+        <v>200216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1693061049016578</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1503934441525544</v>
+        <v>0.1504917824044739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1889866299720667</v>
+        <v>0.1911110082249206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>454</v>
@@ -8887,19 +8887,19 @@
         <v>301432</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>275093</v>
+        <v>272108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333044</v>
+        <v>328734</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1439421630587919</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1313643976170923</v>
+        <v>0.129939020455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1590377642065803</v>
+        <v>0.1569794484279251</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>451913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>415735</v>
+        <v>419621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>483442</v>
+        <v>488883</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.431841574694682</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.397269851421248</v>
+        <v>0.4009840107942809</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4619698356808257</v>
+        <v>0.4671691177281841</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>688</v>
@@ -8937,19 +8937,19 @@
         <v>450631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>420704</v>
+        <v>421854</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>477015</v>
+        <v>479852</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4301382978219735</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4015726879653631</v>
+        <v>0.402669930822209</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4553223783210394</v>
+        <v>0.4580307551964485</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1163</v>
@@ -8958,19 +8958,19 @@
         <v>902544</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>857061</v>
+        <v>861268</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>948935</v>
+        <v>951240</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.430989463550126</v>
+        <v>0.4309894635501261</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4092699297959269</v>
+        <v>0.411279105365693</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4531424684096829</v>
+        <v>0.4542433245608675</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>339339</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>302658</v>
+        <v>305978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>375186</v>
+        <v>371732</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.324267246967907</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2892159185373941</v>
+        <v>0.2923876721374483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3585227169907644</v>
+        <v>0.3552218293866565</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>358</v>
@@ -9008,19 +9008,19 @@
         <v>291277</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>265124</v>
+        <v>261928</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>319921</v>
+        <v>318152</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2780309524905771</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2530678030483647</v>
+        <v>0.2500169442625089</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3053724308508676</v>
+        <v>0.3036838265477351</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>656</v>
@@ -9029,19 +9029,19 @@
         <v>630616</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>588349</v>
+        <v>586933</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>676123</v>
+        <v>674764</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3011362678309371</v>
+        <v>0.3011362678309372</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2809524994294452</v>
+        <v>0.2802766846298397</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.322866992831648</v>
+        <v>0.3222181423569621</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>112843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91499</v>
+        <v>87162</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148200</v>
+        <v>140823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1078311620853952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08743504317764046</v>
+        <v>0.08329068817954073</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1416177686962639</v>
+        <v>0.1345679194196071</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -9079,19 +9079,19 @@
         <v>89857</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74334</v>
+        <v>74107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>112554</v>
+        <v>109509</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08577092868631211</v>
+        <v>0.08577092868631213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07095359031531079</v>
+        <v>0.07073698025064178</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1074356757494552</v>
+        <v>0.1045293164724153</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>175</v>
@@ -9100,19 +9100,19 @@
         <v>202700</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172796</v>
+        <v>172415</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>235876</v>
+        <v>237441</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09679492303814476</v>
+        <v>0.09679492303814477</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08251462938085885</v>
+        <v>0.08233284768127706</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1126374480787607</v>
+        <v>0.1133843773378191</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>18615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11969</v>
+        <v>12166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27955</v>
+        <v>29038</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01907423326526911</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01226409599532412</v>
+        <v>0.01246605432880581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02864476483405852</v>
+        <v>0.02975465158764363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -9225,19 +9225,19 @@
         <v>15655</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10238</v>
+        <v>10672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22570</v>
+        <v>22852</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01720828919687921</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01125400931974702</v>
+        <v>0.01173172459822339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02481002867039816</v>
+        <v>0.02512019607027782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -9246,19 +9246,19 @@
         <v>34270</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25743</v>
+        <v>25658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45386</v>
+        <v>47696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01817402565955633</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01365201024058251</v>
+        <v>0.01360702974402829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02406914277106646</v>
+        <v>0.02529439172180234</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>101699</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83693</v>
+        <v>84064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123005</v>
+        <v>124130</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1042071035224472</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08575759817044022</v>
+        <v>0.08613699306976433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1260393483698314</v>
+        <v>0.127191906711496</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>203</v>
@@ -9296,19 +9296,19 @@
         <v>118945</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102973</v>
+        <v>104426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>136677</v>
+        <v>137305</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1307510957072341</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.113193461215998</v>
+        <v>0.1147907366850254</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1502426101554703</v>
+        <v>0.1509325639188266</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>315</v>
@@ -9317,19 +9317,19 @@
         <v>220644</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>195812</v>
+        <v>195516</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>247980</v>
+        <v>247158</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1170130091524828</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1038437353395756</v>
+        <v>0.1036868146018634</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1315097210498493</v>
+        <v>0.131073988560009</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>470691</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>438680</v>
+        <v>436876</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>507270</v>
+        <v>505214</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.482300013907941</v>
+        <v>0.4823000139079409</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4494995517060462</v>
+        <v>0.4476510658499845</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.51978147246002</v>
+        <v>0.5176753191875207</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>706</v>
@@ -9367,19 +9367,19 @@
         <v>454852</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>426177</v>
+        <v>429783</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>482443</v>
+        <v>484253</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4999968502352911</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4684762590151071</v>
+        <v>0.4724404639229668</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5303271939244997</v>
+        <v>0.5323166901761818</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1203</v>
@@ -9388,19 +9388,19 @@
         <v>925542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>881232</v>
+        <v>883081</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>968459</v>
+        <v>971189</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4908376903200111</v>
+        <v>0.4908376903200112</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4673387971851125</v>
+        <v>0.4683196253770097</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5135973150981837</v>
+        <v>0.5150454854341446</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>245602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>214994</v>
+        <v>213164</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>278741</v>
+        <v>277456</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2516601770193707</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.22029700411224</v>
+        <v>0.2184220796700369</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2856162280959047</v>
+        <v>0.2842992560513977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>273</v>
@@ -9438,19 +9438,19 @@
         <v>217355</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192787</v>
+        <v>193252</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>244229</v>
+        <v>245409</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2389281245116263</v>
+        <v>0.2389281245116262</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2119219365553297</v>
+        <v>0.2124330961670867</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2684695944258796</v>
+        <v>0.2697665266060251</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>490</v>
@@ -9459,19 +9459,19 @@
         <v>462958</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>429990</v>
+        <v>420640</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>513219</v>
+        <v>501759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2455177150356651</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2280342726707729</v>
+        <v>0.2230754862196168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2721723621123484</v>
+        <v>0.2660950910132744</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>139322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113534</v>
+        <v>113767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170723</v>
+        <v>170631</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1427584722849721</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1163338444333398</v>
+        <v>0.1165734885441838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1749337804780251</v>
+        <v>0.1748392725538475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -9509,19 +9509,19 @@
         <v>102902</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85871</v>
+        <v>84430</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125932</v>
+        <v>125708</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1131156403489694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09439354223040992</v>
+        <v>0.09280980586505883</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1384311212472176</v>
+        <v>0.138185088747027</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>212</v>
@@ -9530,19 +9530,19 @@
         <v>242224</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>211143</v>
+        <v>210405</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>276399</v>
+        <v>281048</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1284575598322847</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1119741360489062</v>
+        <v>0.111582896188679</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1465809661632506</v>
+        <v>0.1490466533718124</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>120790</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>101640</v>
+        <v>103466</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>140859</v>
+        <v>143575</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03469684303450997</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02919606457463184</v>
+        <v>0.02972052917575824</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.040461654093434</v>
+        <v>0.0412418928818552</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>348</v>
@@ -9655,19 +9655,19 @@
         <v>197651</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>177960</v>
+        <v>177674</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220732</v>
+        <v>219425</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0534657801274916</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04813909109235409</v>
+        <v>0.04806176187334379</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05970927726877632</v>
+        <v>0.05935574096116323</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>506</v>
@@ -9676,19 +9676,19 @@
         <v>318441</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>290642</v>
+        <v>288716</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>350125</v>
+        <v>348301</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04436304635965409</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04049034220965747</v>
+        <v>0.04022198717767096</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04877707509762736</v>
+        <v>0.04852301671237994</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>484940</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>449017</v>
+        <v>438388</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>526131</v>
+        <v>527841</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1392991002181581</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1289804099920488</v>
+        <v>0.125927070430263</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1511312383966245</v>
+        <v>0.1516225599949146</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1170</v>
@@ -9726,19 +9726,19 @@
         <v>700592</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>660981</v>
+        <v>663642</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>740615</v>
+        <v>739114</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1895140346371296</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1787990426867661</v>
+        <v>0.1795189060752018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.20034057492368</v>
+        <v>0.1999345215594049</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1726</v>
@@ -9747,19 +9747,19 @@
         <v>1185531</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1134259</v>
+        <v>1130574</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1245842</v>
+        <v>1243957</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1651603284618214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1580173758158263</v>
+        <v>0.1575040876606494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1735624478358286</v>
+        <v>0.1732997489588173</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>1463863</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1399654</v>
+        <v>1400194</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1524907</v>
+        <v>1525855</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4204951687277727</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4020512088091613</v>
+        <v>0.4022061990808755</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.438030136535875</v>
+        <v>0.4383024939628241</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2353</v>
@@ -9797,19 +9797,19 @@
         <v>1591067</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1533998</v>
+        <v>1541290</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1646408</v>
+        <v>1649860</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4303927407197876</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4149551510027136</v>
+        <v>0.4169276355129389</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4453627505254906</v>
+        <v>0.4462964950489398</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3870</v>
@@ -9818,19 +9818,19 @@
         <v>3054930</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2973623</v>
+        <v>2974550</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3137824</v>
+        <v>3144266</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.425592524152116</v>
+        <v>0.4255925241521159</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4142653589389989</v>
+        <v>0.4143944918450306</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4371407180876434</v>
+        <v>0.4380381013051808</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1003339</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>947718</v>
+        <v>944158</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1064046</v>
+        <v>1068770</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.288209548702412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2722324123789419</v>
+        <v>0.2712096446621843</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3056475369364044</v>
+        <v>0.3070044455258977</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1131</v>
@@ -9868,19 +9868,19 @@
         <v>916264</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>867994</v>
+        <v>870777</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>968508</v>
+        <v>968544</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2478546902933723</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.234797400127806</v>
+        <v>0.2355502004747836</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2619870136791199</v>
+        <v>0.2619967532245742</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1978</v>
@@ -9889,19 +9889,19 @@
         <v>1919604</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1843004</v>
+        <v>1839069</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2000574</v>
+        <v>2003996</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2674263650513227</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2567549957092902</v>
+        <v>0.2562068065427403</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2787066528524033</v>
+        <v>0.2791834010848308</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>408352</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>355162</v>
+        <v>354285</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>459759</v>
+        <v>462182</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1172993393171472</v>
+        <v>0.1172993393171473</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1020205185548204</v>
+        <v>0.1017684890859513</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1320660354509511</v>
+        <v>0.1327619221176508</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>305</v>
@@ -9939,19 +9939,19 @@
         <v>291206</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>260172</v>
+        <v>258891</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>327792</v>
+        <v>327143</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07877275422221883</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07037791167206092</v>
+        <v>0.07003140287849297</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08866965425806798</v>
+        <v>0.08849396337780284</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>568</v>
@@ -9960,19 +9960,19 @@
         <v>699558</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>638318</v>
+        <v>641800</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>764284</v>
+        <v>761053</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09745773597508581</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08892623758925294</v>
+        <v>0.08941129871666868</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1064749518354913</v>
+        <v>0.1060248012491862</v>
       </c>
     </row>
     <row r="33">
